--- a/data_updated.xlsx
+++ b/data_updated.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23196" windowHeight="11604" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23196" windowHeight="11604"/>
   </bookViews>
   <sheets>
     <sheet name="Prensas" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="173">
   <si>
     <t>yacimiento</t>
   </si>
@@ -60,9 +60,6 @@
     <t>90 dC</t>
   </si>
   <si>
-    <t>El Moré (Sant Pol de Mar</t>
-  </si>
-  <si>
     <t>Torre Martina (S. Pol de Mar)</t>
   </si>
   <si>
@@ -345,9 +342,6 @@
     <t>Vil·la Romana Can Sentromà (Tiana, Maresme)</t>
   </si>
   <si>
-    <t>Vil·la Romana de Sant Pere (Gavà, Baix llobregat)</t>
-  </si>
-  <si>
     <t>Vil·la Romana del Castell (Castelldefels, Baix Llobregat)</t>
   </si>
   <si>
@@ -411,9 +405,6 @@
     <t>Vil·la Romana de Can Batllori (Barcelona, Barcelonès)</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
     <t>Vil·la Romana del Turó de la Rovira (Barcelona, Barcelonès)</t>
   </si>
   <si>
@@ -480,27 +471,67 @@
     <t>Vil·la Romana Nucli Antic/Teatre Odeón (Canet de Mar, Maresme)</t>
   </si>
   <si>
-    <r>
-      <t>Ciutat Romana de</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Barcino</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> (torcular+cella vinaria) (Barcelona, Barcelonès)</t>
-    </r>
+    <t>Vil·la Romana Hort de Can Magre/Hort d'en Parera (Alella, Maresme)</t>
+  </si>
+  <si>
+    <t>Vil·la Romana Partida Fosses o Clotes/El Palau (Premià de Mar/Teià, Maresme)</t>
+  </si>
+  <si>
+    <t>Vil·la Romana de Can Bartrina/Can Cusani (Argentona, Maresme)</t>
+  </si>
+  <si>
+    <t>Vil·la Romana del Parc Central (Mataró, Maresme)</t>
+  </si>
+  <si>
+    <t>Vil·la Romana de Rocafonda "Els Caputxins" (Mataró, Maresme)</t>
+  </si>
+  <si>
+    <t>Vil·la Romana de Can Rafart (Mataró, Maresme)</t>
+  </si>
+  <si>
+    <t>Vil·la Romana de Cirera-Torrent de les Piques (Mataró, Maresme)</t>
+  </si>
+  <si>
+    <t>Vil·la Romana de Torrent Forcat-Ca la Madrona? (Mataró, Maresme)</t>
+  </si>
+  <si>
+    <t>Vil·la Romana de Ca n'Alzina (Cardedeu, Vallès Oriental)</t>
+  </si>
+  <si>
+    <t>Vil·la Romana Monestir de Pedralbes (Barcelona, Barcelonès)</t>
+  </si>
+  <si>
+    <t>Vil·la Romana de Can Ricart (Barcelona, Barcelonès)</t>
+  </si>
+  <si>
+    <t>Vil·la Romana de Can Gomis(Barcelona, Barcelonès)</t>
+  </si>
+  <si>
+    <t>Vil·la Romana de Can Mariner (Barcelona, Barcelonès)</t>
+  </si>
+  <si>
+    <t>Estadi Olímpic de Montjuïc (Barcelona, Barcelonès)</t>
+  </si>
+  <si>
+    <t>Mare de Deu del Port (Barcelona, Barcelonès)</t>
+  </si>
+  <si>
+    <t>Vil·la Romana Estació Sant Andreu-Comtal (Barcelona, Barcelonès)</t>
+  </si>
+  <si>
+    <t>Vil·la Romana de Can Nolla-Ermita de Santa Anna (Premià de Dalt, Maresme)</t>
+  </si>
+  <si>
+    <t>Vil·la Romana Can Reverter (Sant Vicenç dels Horts, Baix Llobregat)</t>
+  </si>
+  <si>
+    <t>80/50 aC</t>
+  </si>
+  <si>
+    <t>500 dC?</t>
+  </si>
+  <si>
+    <t>425 dC</t>
   </si>
   <si>
     <r>
@@ -522,78 +553,44 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> (torcular+cella vinaria) (Badalona, Barcelonès)</t>
+      <t xml:space="preserve"> torcular+cella vinaria (Badalona, Barcelonès)</t>
     </r>
   </si>
   <si>
-    <t>Vil·la Romana Hort de Can Magre/Hort d'en Parera (Alella, Maresme)</t>
-  </si>
-  <si>
-    <t>Vil·la Romana Partida Fosses o Clotes/El Palau (Premià de Mar/Teià, Maresme)</t>
-  </si>
-  <si>
-    <t>Vil·la Romana de Can Bartrina/Can Cusani (Argentona, Maresme)</t>
-  </si>
-  <si>
-    <t>Vil·la Romana del Parc Central (Mataró, Maresme)</t>
-  </si>
-  <si>
-    <t>Vil·la Romana de Rocafonda "Els Caputxins" (Mataró, Maresme)</t>
-  </si>
-  <si>
-    <t>Vil·la Romana de Can Rafart (Mataró, Maresme)</t>
-  </si>
-  <si>
-    <t>Vil·la Romana de Cirera-Torrent de les Piques (Mataró, Maresme)</t>
-  </si>
-  <si>
-    <t>Vil·la Romana de Torrent Forcat-Ca la Madrona? (Mataró, Maresme)</t>
-  </si>
-  <si>
-    <t>Vil·la Romana de Ca n'Alzina (Cardedeu, Vallès Oriental)</t>
-  </si>
-  <si>
-    <t>Vil·la Romana Monestir de Pedralbes (Barcelona, Barcelonès)</t>
-  </si>
-  <si>
-    <t>Vil·la Romana de Can Ricart (Barcelona, Barcelonès)</t>
-  </si>
-  <si>
-    <t>Vil·la Romana de Can Gomis(Barcelona, Barcelonès)</t>
-  </si>
-  <si>
-    <t>Vil·la Romana de Can Mariner (Barcelona, Barcelonès)</t>
-  </si>
-  <si>
-    <t>Estadi Olímpic de Montjuïc (Barcelona, Barcelonès)</t>
-  </si>
-  <si>
-    <t>Mare de Deu del Port (Barcelona, Barcelonès)</t>
-  </si>
-  <si>
-    <t>Vil·la Romana Estació Sant Andreu-Comtal (Barcelona, Barcelonès)</t>
-  </si>
-  <si>
-    <t>Vil·la Romana de Can Nolla-Ermita de Santa Anna (Premià de Dalt, Maresme)</t>
-  </si>
-  <si>
-    <t>Vil·la Romana Can Reverter (Sant Vicenç dels Horts, Baix Llobregat)</t>
-  </si>
-  <si>
-    <t>80/50 aC</t>
-  </si>
-  <si>
-    <t>500 dC?</t>
-  </si>
-  <si>
-    <t>425 dC</t>
+    <r>
+      <t>Ciutat Romana de</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Barcino </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>torcular+cella vinaria (Barcelona, Barcelonès)</t>
+    </r>
+  </si>
+  <si>
+    <t>El Moré (S. Pol de Mar)</t>
+  </si>
+  <si>
+    <t>Vil·la Romana de Sant Pere (Gavà, Baix Llobregat)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -622,13 +619,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -671,20 +661,20 @@
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -707,10 +697,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1008,11 +994,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z84"/>
+  <dimension ref="A1:Z83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1023,7 +1009,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1061,7 +1047,7 @@
     </row>
     <row r="2" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="9">
         <v>0</v>
@@ -1073,7 +1059,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -1099,7 +1085,7 @@
     </row>
     <row r="3" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="9">
         <v>0</v>
@@ -1111,7 +1097,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -1137,7 +1123,7 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="9">
         <v>0</v>
@@ -1149,7 +1135,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1175,7 +1161,7 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="10">
         <v>1</v>
@@ -1187,12 +1173,12 @@
         <v>7</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="12">
         <v>3</v>
@@ -1204,12 +1190,12 @@
         <v>7</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="12">
         <v>0</v>
@@ -1218,15 +1204,15 @@
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B8" s="12">
         <v>0</v>
@@ -1235,15 +1221,15 @@
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B9" s="12">
         <v>1</v>
@@ -1252,15 +1238,15 @@
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" s="12">
         <v>0</v>
@@ -1272,12 +1258,12 @@
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="12">
         <v>0</v>
@@ -1289,12 +1275,12 @@
         <v>7</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" s="12">
         <v>1</v>
@@ -1306,12 +1292,12 @@
         <v>7</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B13" s="12">
         <v>0</v>
@@ -1323,12 +1309,12 @@
         <v>7</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B14" s="12">
         <v>0</v>
@@ -1337,15 +1323,15 @@
         <v>2</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B15" s="12">
         <v>0</v>
@@ -1357,12 +1343,12 @@
         <v>7</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B16" s="12">
         <v>2</v>
@@ -1374,12 +1360,12 @@
         <v>7</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B17" s="12">
         <v>1</v>
@@ -1391,12 +1377,12 @@
         <v>7</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" s="12">
         <v>2</v>
@@ -1408,12 +1394,12 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B19" s="12">
         <v>0</v>
@@ -1422,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -1430,7 +1416,7 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" s="12">
         <v>1</v>
@@ -1442,12 +1428,12 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B21" s="12">
         <v>1</v>
@@ -1459,12 +1445,12 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B22" s="12">
         <v>1</v>
@@ -1476,12 +1462,12 @@
         <v>7</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B23" s="12">
         <v>0</v>
@@ -1493,12 +1479,12 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B24" s="12">
         <v>0</v>
@@ -1510,12 +1496,12 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" s="12">
         <v>4</v>
@@ -1527,12 +1513,12 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B26" s="12">
         <v>0</v>
@@ -1541,15 +1527,15 @@
         <v>2</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B27" s="12">
         <v>0</v>
@@ -1561,12 +1547,12 @@
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B28" s="12">
         <v>1</v>
@@ -1578,12 +1564,12 @@
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="B29" s="12">
         <v>1</v>
@@ -1595,12 +1581,12 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B30" s="12">
         <v>1</v>
@@ -1612,12 +1598,12 @@
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="B31" s="12">
         <v>1</v>
@@ -1629,12 +1615,12 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B32" s="12">
         <v>0</v>
@@ -1646,12 +1632,12 @@
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B33" s="12">
         <v>0</v>
@@ -1663,12 +1649,12 @@
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B34" s="12">
         <v>1</v>
@@ -1680,12 +1666,12 @@
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B35" s="12">
         <v>0</v>
@@ -1697,12 +1683,12 @@
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B36" s="12">
         <v>1</v>
@@ -1714,12 +1700,12 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B37" s="12">
         <v>1</v>
@@ -1731,12 +1717,12 @@
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B38" s="12">
         <v>0</v>
@@ -1748,12 +1734,12 @@
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B39" s="12">
         <v>0</v>
@@ -1765,12 +1751,12 @@
         <v>7</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B40" s="12">
         <v>0</v>
@@ -1782,12 +1768,12 @@
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B41" s="12">
         <v>5</v>
@@ -1796,15 +1782,15 @@
         <v>6</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B42" s="12">
         <v>0</v>
@@ -1816,12 +1802,12 @@
         <v>7</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B43" s="12">
         <v>0</v>
@@ -1833,12 +1819,12 @@
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B44" s="12">
         <v>0</v>
@@ -1850,12 +1836,12 @@
         <v>7</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B45" s="12">
         <v>1</v>
@@ -1867,12 +1853,12 @@
         <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B46" s="12">
         <v>0</v>
@@ -1884,12 +1870,12 @@
         <v>7</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B47" s="12">
         <v>0</v>
@@ -1901,12 +1887,12 @@
         <v>7</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B48" s="12">
         <v>1</v>
@@ -1918,12 +1904,12 @@
         <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B49" s="12">
         <v>0</v>
@@ -1935,12 +1921,12 @@
         <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B50" s="12">
         <v>0</v>
@@ -1952,12 +1938,12 @@
         <v>7</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B51" s="12">
         <v>0</v>
@@ -1966,15 +1952,15 @@
         <v>2</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B52" s="12">
         <v>0</v>
@@ -1983,15 +1969,15 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B53" s="12">
         <v>0</v>
@@ -2003,12 +1989,12 @@
         <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B54" s="12">
         <v>0</v>
@@ -2020,12 +2006,12 @@
         <v>7</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B55" s="12">
         <v>1</v>
@@ -2037,12 +2023,12 @@
         <v>7</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B56" s="12">
         <v>0</v>
@@ -2051,15 +2037,15 @@
         <v>2</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B57" s="12">
         <v>2</v>
@@ -2071,29 +2057,29 @@
         <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C58" s="13">
         <v>2</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B59" s="12">
         <v>0</v>
@@ -2102,15 +2088,15 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" t="s">
         <v>56</v>
-      </c>
-      <c r="E59" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B60" s="12">
         <v>1</v>
@@ -2122,12 +2108,12 @@
         <v>7</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B61" s="12">
         <v>0</v>
@@ -2139,12 +2125,12 @@
         <v>7</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B62" s="12">
         <v>0</v>
@@ -2156,12 +2142,12 @@
         <v>7</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B63" s="12">
         <v>4</v>
@@ -2173,12 +2159,12 @@
         <v>7</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B64" s="12">
         <v>0</v>
@@ -2190,12 +2176,12 @@
         <v>7</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B65" s="12">
         <v>0</v>
@@ -2207,12 +2193,12 @@
         <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B66" s="12">
         <v>0</v>
@@ -2224,12 +2210,12 @@
         <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B67" s="12">
         <v>2</v>
@@ -2241,12 +2227,12 @@
         <v>7</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B68" s="12">
         <v>0</v>
@@ -2258,12 +2244,12 @@
         <v>7</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B69" s="12">
         <v>1</v>
@@ -2275,12 +2261,12 @@
         <v>7</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B70" s="12">
         <v>0</v>
@@ -2289,15 +2275,15 @@
         <v>2</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B71" s="12">
         <v>0</v>
@@ -2309,12 +2295,12 @@
         <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B72" s="12">
         <v>0</v>
@@ -2323,15 +2309,15 @@
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B73" s="12">
         <v>0</v>
@@ -2343,12 +2329,12 @@
         <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B74" s="12">
         <v>1</v>
@@ -2360,12 +2346,12 @@
         <v>7</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B75" s="12">
         <v>1</v>
@@ -2377,12 +2363,12 @@
         <v>7</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B76" s="12">
         <v>0</v>
@@ -2394,12 +2380,12 @@
         <v>7</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B77" s="12">
         <v>2</v>
@@ -2411,12 +2397,12 @@
         <v>7</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B78" s="12">
         <v>0</v>
@@ -2428,12 +2414,12 @@
         <v>7</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B79" s="12">
         <v>1</v>
@@ -2442,15 +2428,15 @@
         <v>2</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B80" s="12">
         <v>0</v>
@@ -2462,12 +2448,12 @@
         <v>7</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B81" s="12">
         <v>0</v>
@@ -2476,15 +2462,15 @@
         <v>2</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="B82" s="12">
         <v>0</v>
@@ -2493,15 +2479,15 @@
         <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E82" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B83" s="12">
         <v>0</v>
@@ -2513,20 +2499,7 @@
         <v>7</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="B84" s="15">
-        <f>SUM(B2:B83)</f>
-        <v>48</v>
-      </c>
-      <c r="C84" s="15">
-        <f>SUM(C2:C83)</f>
-        <v>172</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2542,10 +2515,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A36" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2568,7 +2541,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2598,12 +2571,12 @@
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="B4" s="12">
         <v>3</v>
@@ -2620,7 +2593,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12">
@@ -2630,12 +2603,12 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12">
@@ -2650,24 +2623,24 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" s="12">
-        <v>1</v>
-      </c>
-      <c r="C7" s="12">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="12">
         <v>1</v>
@@ -2684,7 +2657,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="12">
         <v>1</v>
@@ -2693,22 +2666,22 @@
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -2716,7 +2689,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="12">
         <v>3</v>
@@ -2733,14 +2706,14 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12">
         <v>1</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>8</v>
@@ -2748,7 +2721,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12">
@@ -2763,7 +2736,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="12">
         <v>1</v>
@@ -2780,7 +2753,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="12">
         <v>1</v>
@@ -2797,7 +2770,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12">
@@ -2812,7 +2785,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="12">
         <v>2</v>
@@ -2821,7 +2794,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>8</v>
@@ -2829,11 +2802,11 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="C18" s="12">
         <v>1</v>
       </c>
@@ -2841,12 +2814,12 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="12">
         <v>1</v>
@@ -2858,12 +2831,12 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12">
@@ -2873,12 +2846,12 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="12">
         <v>6</v>
@@ -2887,22 +2860,22 @@
         <v>6</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12">
         <v>1</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
@@ -2910,7 +2883,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12">
@@ -2925,7 +2898,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="12">
         <v>1</v>
@@ -2937,12 +2910,12 @@
         <v>7</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12">
@@ -2957,7 +2930,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12">
@@ -2972,7 +2945,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12">
@@ -2982,36 +2955,36 @@
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12">
         <v>1</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="12">
+        <v>1</v>
+      </c>
+      <c r="C29" s="12">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B29" s="12">
-        <v>1</v>
-      </c>
-      <c r="C29" s="12">
-        <v>1</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>8</v>
@@ -3019,7 +2992,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" s="12">
         <v>2</v>
@@ -3036,7 +3009,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" s="12">
         <v>1</v>
@@ -3045,15 +3018,15 @@
         <v>1</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12">
@@ -3068,7 +3041,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" s="12">
         <v>1</v>
@@ -3085,7 +3058,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" s="12">
         <v>3</v>
@@ -3102,7 +3075,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="12">
         <v>4</v>
@@ -3111,7 +3084,7 @@
         <v>4</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>8</v>
@@ -3119,7 +3092,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" s="12">
         <v>4</v>
@@ -3131,27 +3104,27 @@
         <v>7</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12">
         <v>1</v>
       </c>
       <c r="D37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="12">
         <v>2</v>
@@ -3163,12 +3136,12 @@
         <v>7</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12">
@@ -3183,7 +3156,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B40" s="12">
         <v>3</v>
@@ -3195,27 +3168,27 @@
         <v>7</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="12">
         <v>1</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="12">
@@ -3230,7 +3203,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B43" s="12">
         <v>1</v>
@@ -3239,7 +3212,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>8</v>
@@ -3247,7 +3220,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B44" s="12">
         <v>2</v>
@@ -3264,7 +3237,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B45" s="12">
         <v>1</v>
@@ -3281,29 +3254,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="12">
         <v>1</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="B47" s="15">
-        <f>SUM(B2:B46)</f>
-        <v>46</v>
-      </c>
-      <c r="C47" s="15">
-        <f>SUM(C2:C46)</f>
         <v>68</v>
       </c>
     </row>
